--- a/data/DFM预处理数据.xlsx
+++ b/data/DFM预处理数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIU\Desktop\HTFA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE32504-44A9-4FDC-AACC-AE81A51EC83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D562143-F31E-4421-A8E2-C8053DF0D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="658">
   <si>
     <t>Date</t>
   </si>
@@ -1573,9 +1573,6 @@
     <t>Nature</t>
   </si>
   <si>
-    <t>一次估计</t>
-  </si>
-  <si>
     <t>一阶段预测</t>
   </si>
   <si>
@@ -2005,6 +2002,14 @@
     <t>中国:产量:热轧板卷:主要钢厂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>备份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次估计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2522,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>41</v>
@@ -2708,7 +2713,7 @@
         <v>101</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="DA1" s="1" t="s">
         <v>102</v>
@@ -63939,10 +63944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -63951,7 +63956,7 @@
     <col min="2" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>509</v>
       </c>
@@ -63967,3269 +63972,3374 @@
       <c r="E1" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>520</v>
+      <c r="M1" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" t="s">
         <v>521</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>522</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>523</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>524</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>525</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>526</v>
       </c>
-      <c r="L2" t="s">
-        <v>527</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
         <v>521</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>523</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G3" t="s">
+        <v>527</v>
+      </c>
+      <c r="J3" t="s">
         <v>524</v>
       </c>
-      <c r="F3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>528</v>
       </c>
-      <c r="J3" t="s">
-        <v>525</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>529</v>
       </c>
-      <c r="L3" t="s">
-        <v>530</v>
+      <c r="M3" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" t="s">
         <v>521</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>522</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>523</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>652</v>
+      </c>
+      <c r="G4" t="s">
+        <v>527</v>
+      </c>
+      <c r="J4" t="s">
         <v>524</v>
       </c>
-      <c r="F4" t="s">
-        <v>653</v>
-      </c>
-      <c r="G4" t="s">
-        <v>528</v>
-      </c>
-      <c r="J4" t="s">
-        <v>525</v>
-      </c>
       <c r="K4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L4" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M4" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D5" t="s">
         <v>522</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>523</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>527</v>
+      </c>
+      <c r="J5" t="s">
         <v>524</v>
       </c>
-      <c r="G5" t="s">
-        <v>528</v>
-      </c>
-      <c r="J5" t="s">
-        <v>525</v>
-      </c>
       <c r="K5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" t="s">
         <v>521</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>522</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>523</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>527</v>
+      </c>
+      <c r="J6" t="s">
         <v>524</v>
       </c>
-      <c r="G6" t="s">
-        <v>528</v>
-      </c>
-      <c r="J6" t="s">
-        <v>525</v>
-      </c>
       <c r="K6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" t="s">
         <v>534</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>535</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>536</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G7" t="s">
+        <v>527</v>
+      </c>
+      <c r="J7" t="s">
         <v>537</v>
       </c>
-      <c r="F7" t="s">
-        <v>653</v>
-      </c>
-      <c r="G7" t="s">
-        <v>528</v>
-      </c>
-      <c r="J7" t="s">
-        <v>538</v>
-      </c>
       <c r="K7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M7" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E8" t="s">
         <v>523</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>652</v>
+      </c>
+      <c r="G8" t="s">
+        <v>527</v>
+      </c>
+      <c r="J8" t="s">
         <v>524</v>
       </c>
-      <c r="F8" t="s">
-        <v>653</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>528</v>
       </c>
-      <c r="J8" t="s">
-        <v>525</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>529</v>
       </c>
-      <c r="L8" t="s">
-        <v>530</v>
+      <c r="M8" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" t="s">
         <v>523</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>527</v>
+      </c>
+      <c r="J9" t="s">
         <v>524</v>
       </c>
-      <c r="G9" t="s">
-        <v>528</v>
-      </c>
-      <c r="J9" t="s">
-        <v>525</v>
-      </c>
       <c r="K9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G10" t="s">
+        <v>527</v>
+      </c>
+      <c r="J10" t="s">
+        <v>524</v>
+      </c>
+      <c r="K10" t="s">
         <v>540</v>
       </c>
-      <c r="C10" t="s">
-        <v>535</v>
-      </c>
-      <c r="D10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E10" t="s">
-        <v>524</v>
-      </c>
-      <c r="G10" t="s">
-        <v>528</v>
-      </c>
-      <c r="J10" t="s">
-        <v>525</v>
-      </c>
-      <c r="K10" t="s">
-        <v>541</v>
-      </c>
       <c r="L10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E11" t="s">
         <v>523</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>527</v>
+      </c>
+      <c r="J11" t="s">
         <v>524</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>528</v>
       </c>
-      <c r="J11" t="s">
-        <v>525</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>529</v>
       </c>
-      <c r="L11" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" t="s">
         <v>535</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>536</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J12" t="s">
         <v>537</v>
       </c>
-      <c r="F12" t="s">
-        <v>653</v>
-      </c>
-      <c r="G12" t="s">
-        <v>528</v>
-      </c>
-      <c r="J12" t="s">
-        <v>538</v>
-      </c>
       <c r="K12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L12" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M12" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" t="s">
         <v>535</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>536</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>652</v>
+      </c>
+      <c r="G13" t="s">
+        <v>527</v>
+      </c>
+      <c r="J13" t="s">
         <v>537</v>
       </c>
-      <c r="F13" t="s">
-        <v>653</v>
-      </c>
-      <c r="G13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J13" t="s">
-        <v>538</v>
-      </c>
       <c r="K13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L13" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M13" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" t="s">
         <v>535</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>536</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>652</v>
+      </c>
+      <c r="G14" t="s">
+        <v>527</v>
+      </c>
+      <c r="J14" t="s">
         <v>537</v>
       </c>
-      <c r="F14" t="s">
-        <v>653</v>
-      </c>
-      <c r="G14" t="s">
-        <v>528</v>
-      </c>
-      <c r="J14" t="s">
-        <v>538</v>
-      </c>
       <c r="K14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L14" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M14" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D15" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" t="s">
         <v>523</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>527</v>
+      </c>
+      <c r="J15" t="s">
         <v>524</v>
       </c>
-      <c r="G15" t="s">
-        <v>528</v>
-      </c>
-      <c r="J15" t="s">
-        <v>525</v>
-      </c>
       <c r="K15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D16" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" t="s">
         <v>523</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
+        <v>527</v>
+      </c>
+      <c r="J16" t="s">
         <v>524</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>528</v>
       </c>
-      <c r="J16" t="s">
-        <v>525</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>529</v>
       </c>
-      <c r="L16" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" t="s">
         <v>523</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
+        <v>527</v>
+      </c>
+      <c r="J17" t="s">
         <v>524</v>
       </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
         <v>528</v>
       </c>
-      <c r="J17" t="s">
-        <v>525</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>529</v>
       </c>
-      <c r="L17" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" t="s">
         <v>523</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>527</v>
+      </c>
+      <c r="J18" t="s">
         <v>524</v>
       </c>
-      <c r="G18" t="s">
-        <v>528</v>
-      </c>
-      <c r="J18" t="s">
-        <v>525</v>
-      </c>
       <c r="K18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" t="s">
         <v>535</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>536</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J19" t="s">
         <v>537</v>
       </c>
-      <c r="J19" t="s">
-        <v>538</v>
-      </c>
       <c r="K19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" t="s">
         <v>535</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>536</v>
       </c>
-      <c r="E20" t="s">
+      <c r="J20" t="s">
         <v>537</v>
       </c>
-      <c r="J20" t="s">
-        <v>538</v>
-      </c>
       <c r="K20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D21" t="s">
+        <v>522</v>
+      </c>
+      <c r="E21" t="s">
         <v>523</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
+        <v>527</v>
+      </c>
+      <c r="J21" t="s">
         <v>524</v>
       </c>
-      <c r="G21" t="s">
+      <c r="K21" t="s">
         <v>528</v>
       </c>
-      <c r="J21" t="s">
-        <v>525</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>529</v>
       </c>
-      <c r="L21" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
+        <v>522</v>
+      </c>
+      <c r="E22" t="s">
         <v>523</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
+        <v>527</v>
+      </c>
+      <c r="J22" t="s">
         <v>524</v>
       </c>
-      <c r="G22" t="s">
-        <v>528</v>
-      </c>
-      <c r="J22" t="s">
-        <v>525</v>
-      </c>
       <c r="K22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G23" t="s">
+        <v>527</v>
+      </c>
+      <c r="J23" t="s">
         <v>537</v>
       </c>
-      <c r="G23" t="s">
-        <v>528</v>
-      </c>
-      <c r="J23" t="s">
-        <v>538</v>
-      </c>
       <c r="K23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E24" t="s">
         <v>523</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>527</v>
+      </c>
+      <c r="J24" t="s">
         <v>524</v>
       </c>
-      <c r="G24" t="s">
-        <v>528</v>
-      </c>
-      <c r="J24" t="s">
-        <v>525</v>
-      </c>
       <c r="K24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E25" t="s">
         <v>523</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
+        <v>527</v>
+      </c>
+      <c r="J25" t="s">
         <v>524</v>
       </c>
-      <c r="G25" t="s">
-        <v>528</v>
-      </c>
-      <c r="J25" t="s">
-        <v>525</v>
-      </c>
       <c r="K25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D26" t="s">
+        <v>522</v>
+      </c>
+      <c r="E26" t="s">
         <v>523</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>527</v>
+      </c>
+      <c r="J26" t="s">
         <v>524</v>
       </c>
-      <c r="G26" t="s">
-        <v>528</v>
-      </c>
-      <c r="J26" t="s">
-        <v>525</v>
-      </c>
       <c r="K26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D27" t="s">
+        <v>522</v>
+      </c>
+      <c r="E27" t="s">
         <v>523</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>652</v>
+      </c>
+      <c r="G27" t="s">
+        <v>527</v>
+      </c>
+      <c r="J27" t="s">
         <v>524</v>
       </c>
-      <c r="F27" t="s">
-        <v>653</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="K27" t="s">
         <v>528</v>
       </c>
-      <c r="J27" t="s">
-        <v>525</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>529</v>
       </c>
-      <c r="L27" t="s">
-        <v>530</v>
+      <c r="M27" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D28" t="s">
+        <v>522</v>
+      </c>
+      <c r="E28" t="s">
         <v>523</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>527</v>
+      </c>
+      <c r="J28" t="s">
         <v>524</v>
       </c>
-      <c r="G28" t="s">
-        <v>528</v>
-      </c>
-      <c r="J28" t="s">
-        <v>525</v>
-      </c>
       <c r="K28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" t="s">
         <v>523</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>527</v>
+      </c>
+      <c r="J29" t="s">
         <v>524</v>
       </c>
-      <c r="G29" t="s">
-        <v>528</v>
-      </c>
-      <c r="J29" t="s">
-        <v>525</v>
-      </c>
       <c r="K29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D30" t="s">
+        <v>522</v>
+      </c>
+      <c r="E30" t="s">
         <v>523</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
+        <v>527</v>
+      </c>
+      <c r="J30" t="s">
         <v>524</v>
       </c>
-      <c r="G30" t="s">
-        <v>528</v>
-      </c>
-      <c r="J30" t="s">
-        <v>525</v>
-      </c>
       <c r="K30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" t="s">
         <v>523</v>
       </c>
-      <c r="E31" t="s">
+      <c r="J31" t="s">
         <v>524</v>
       </c>
-      <c r="J31" t="s">
-        <v>525</v>
-      </c>
       <c r="K31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D32" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" t="s">
         <v>523</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>652</v>
+      </c>
+      <c r="G32" t="s">
+        <v>527</v>
+      </c>
+      <c r="J32" t="s">
         <v>524</v>
       </c>
-      <c r="F32" t="s">
-        <v>653</v>
-      </c>
-      <c r="G32" t="s">
-        <v>528</v>
-      </c>
-      <c r="J32" t="s">
-        <v>525</v>
-      </c>
       <c r="K32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L32" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M32" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D33" t="s">
+        <v>522</v>
+      </c>
+      <c r="E33" t="s">
         <v>523</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
+        <v>527</v>
+      </c>
+      <c r="J33" t="s">
         <v>524</v>
       </c>
-      <c r="G33" t="s">
-        <v>528</v>
-      </c>
-      <c r="J33" t="s">
-        <v>525</v>
-      </c>
       <c r="K33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D34" t="s">
+        <v>522</v>
+      </c>
+      <c r="E34" t="s">
         <v>523</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>652</v>
+      </c>
+      <c r="G34" t="s">
+        <v>527</v>
+      </c>
+      <c r="J34" t="s">
         <v>524</v>
       </c>
-      <c r="F34" t="s">
-        <v>653</v>
-      </c>
-      <c r="G34" t="s">
-        <v>528</v>
-      </c>
-      <c r="J34" t="s">
-        <v>525</v>
-      </c>
       <c r="K34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L34" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M34" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D35" t="s">
+        <v>522</v>
+      </c>
+      <c r="E35" t="s">
         <v>523</v>
       </c>
-      <c r="E35" t="s">
+      <c r="J35" t="s">
         <v>524</v>
       </c>
-      <c r="J35" t="s">
-        <v>525</v>
-      </c>
       <c r="K35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D36" t="s">
+        <v>522</v>
+      </c>
+      <c r="E36" t="s">
         <v>523</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>652</v>
+      </c>
+      <c r="G36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J36" t="s">
         <v>524</v>
       </c>
-      <c r="F36" t="s">
-        <v>653</v>
-      </c>
-      <c r="G36" t="s">
-        <v>528</v>
-      </c>
-      <c r="J36" t="s">
-        <v>525</v>
-      </c>
       <c r="K36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L36" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M36" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D37" t="s">
         <v>535</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>536</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>652</v>
+      </c>
+      <c r="G37" t="s">
+        <v>527</v>
+      </c>
+      <c r="J37" t="s">
         <v>537</v>
       </c>
-      <c r="F37" t="s">
-        <v>653</v>
-      </c>
-      <c r="G37" t="s">
-        <v>528</v>
-      </c>
-      <c r="J37" t="s">
-        <v>538</v>
-      </c>
       <c r="K37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L37" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M37" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C38" t="s">
+        <v>534</v>
+      </c>
+      <c r="D38" t="s">
         <v>535</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>536</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
+        <v>527</v>
+      </c>
+      <c r="J38" t="s">
         <v>537</v>
       </c>
-      <c r="G38" t="s">
-        <v>528</v>
-      </c>
-      <c r="J38" t="s">
-        <v>538</v>
-      </c>
       <c r="K38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C39" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" t="s">
         <v>535</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>536</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>652</v>
+      </c>
+      <c r="G39" t="s">
+        <v>527</v>
+      </c>
+      <c r="J39" t="s">
         <v>537</v>
       </c>
-      <c r="F39" t="s">
-        <v>653</v>
-      </c>
-      <c r="G39" t="s">
-        <v>528</v>
-      </c>
-      <c r="J39" t="s">
-        <v>538</v>
-      </c>
       <c r="K39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L39" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M39" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D40" t="s">
+        <v>535</v>
+      </c>
+      <c r="E40" t="s">
+        <v>536</v>
+      </c>
+      <c r="J40" t="s">
+        <v>537</v>
+      </c>
+      <c r="K40" t="s">
         <v>557</v>
       </c>
-      <c r="C40" t="s">
-        <v>535</v>
-      </c>
-      <c r="D40" t="s">
-        <v>536</v>
-      </c>
-      <c r="E40" t="s">
-        <v>537</v>
-      </c>
-      <c r="J40" t="s">
-        <v>538</v>
-      </c>
-      <c r="K40" t="s">
-        <v>558</v>
-      </c>
       <c r="L40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>558</v>
+      </c>
+      <c r="C41" t="s">
+        <v>534</v>
+      </c>
+      <c r="D41" t="s">
+        <v>535</v>
+      </c>
+      <c r="E41" t="s">
         <v>559</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
+        <v>527</v>
+      </c>
+      <c r="J41" t="s">
+        <v>537</v>
+      </c>
+      <c r="K41" t="s">
+        <v>530</v>
+      </c>
+      <c r="L41" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>653</v>
+      </c>
+      <c r="B42" t="s">
+        <v>558</v>
+      </c>
+      <c r="C42" t="s">
+        <v>534</v>
+      </c>
+      <c r="D42" t="s">
         <v>535</v>
       </c>
-      <c r="D41" t="s">
-        <v>536</v>
-      </c>
-      <c r="E41" t="s">
-        <v>560</v>
-      </c>
-      <c r="G41" t="s">
-        <v>528</v>
-      </c>
-      <c r="J41" t="s">
-        <v>538</v>
-      </c>
-      <c r="K41" t="s">
-        <v>531</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="E42" t="s">
+        <v>559</v>
+      </c>
+      <c r="F42" t="s">
+        <v>652</v>
+      </c>
+      <c r="G42" t="s">
+        <v>527</v>
+      </c>
+      <c r="J42" t="s">
+        <v>537</v>
+      </c>
+      <c r="K42" t="s">
         <v>530</v>
       </c>
+      <c r="L42" t="s">
+        <v>529</v>
+      </c>
+      <c r="M42" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>654</v>
-      </c>
-      <c r="B42" t="s">
-        <v>559</v>
-      </c>
-      <c r="C42" t="s">
-        <v>535</v>
-      </c>
-      <c r="D42" t="s">
-        <v>536</v>
-      </c>
-      <c r="E42" t="s">
-        <v>560</v>
-      </c>
-      <c r="F42" t="s">
-        <v>653</v>
-      </c>
-      <c r="G42" t="s">
-        <v>528</v>
-      </c>
-      <c r="J42" t="s">
-        <v>538</v>
-      </c>
-      <c r="K42" t="s">
-        <v>531</v>
-      </c>
-      <c r="L42" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>558</v>
+      </c>
+      <c r="C43" t="s">
+        <v>534</v>
+      </c>
+      <c r="D43" t="s">
+        <v>535</v>
+      </c>
+      <c r="E43" t="s">
         <v>559</v>
       </c>
-      <c r="C43" t="s">
-        <v>535</v>
-      </c>
-      <c r="D43" t="s">
-        <v>536</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>652</v>
+      </c>
+      <c r="G43" t="s">
+        <v>527</v>
+      </c>
+      <c r="J43" t="s">
+        <v>537</v>
+      </c>
+      <c r="K43" t="s">
         <v>560</v>
       </c>
-      <c r="F43" t="s">
-        <v>653</v>
-      </c>
-      <c r="G43" t="s">
-        <v>528</v>
-      </c>
-      <c r="J43" t="s">
-        <v>538</v>
-      </c>
-      <c r="K43" t="s">
-        <v>561</v>
-      </c>
       <c r="L43" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M43" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C44" t="s">
+        <v>534</v>
+      </c>
+      <c r="D44" t="s">
+        <v>535</v>
+      </c>
+      <c r="E44" t="s">
         <v>559</v>
       </c>
-      <c r="C44" t="s">
-        <v>535</v>
-      </c>
-      <c r="D44" t="s">
-        <v>536</v>
-      </c>
-      <c r="E44" t="s">
-        <v>560</v>
-      </c>
       <c r="F44" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J44" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L44" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M44" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>558</v>
+      </c>
+      <c r="C45" t="s">
+        <v>534</v>
+      </c>
+      <c r="D45" t="s">
+        <v>535</v>
+      </c>
+      <c r="E45" t="s">
         <v>559</v>
       </c>
-      <c r="C45" t="s">
-        <v>535</v>
-      </c>
-      <c r="D45" t="s">
-        <v>536</v>
-      </c>
-      <c r="E45" t="s">
-        <v>560</v>
-      </c>
       <c r="F45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L45" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M45" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D46" t="s">
+        <v>522</v>
+      </c>
+      <c r="E46" t="s">
         <v>523</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
+        <v>527</v>
+      </c>
+      <c r="J46" t="s">
         <v>524</v>
       </c>
-      <c r="G46" t="s">
-        <v>528</v>
-      </c>
-      <c r="J46" t="s">
-        <v>525</v>
-      </c>
       <c r="K46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D47" t="s">
         <v>535</v>
       </c>
-      <c r="D47" t="s">
-        <v>536</v>
-      </c>
       <c r="E47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L47" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C48" t="s">
+        <v>534</v>
+      </c>
+      <c r="D48" t="s">
         <v>535</v>
       </c>
-      <c r="D48" t="s">
-        <v>536</v>
-      </c>
       <c r="E48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" t="s">
         <v>523</v>
       </c>
-      <c r="E49" t="s">
+      <c r="J49" t="s">
         <v>524</v>
       </c>
-      <c r="J49" t="s">
-        <v>525</v>
-      </c>
       <c r="K49" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D50" t="s">
+        <v>522</v>
+      </c>
+      <c r="E50" t="s">
         <v>523</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>652</v>
+      </c>
+      <c r="G50" t="s">
+        <v>527</v>
+      </c>
+      <c r="J50" t="s">
         <v>524</v>
       </c>
-      <c r="F50" t="s">
-        <v>653</v>
-      </c>
-      <c r="G50" t="s">
-        <v>528</v>
-      </c>
-      <c r="J50" t="s">
-        <v>525</v>
-      </c>
       <c r="K50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L50" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M50" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D51" t="s">
+        <v>522</v>
+      </c>
+      <c r="E51" t="s">
         <v>523</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>652</v>
+      </c>
+      <c r="G51" t="s">
+        <v>527</v>
+      </c>
+      <c r="J51" t="s">
         <v>524</v>
       </c>
-      <c r="F51" t="s">
-        <v>653</v>
-      </c>
-      <c r="G51" t="s">
-        <v>528</v>
-      </c>
-      <c r="J51" t="s">
-        <v>525</v>
-      </c>
       <c r="K51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L51" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M51" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D52" t="s">
+        <v>522</v>
+      </c>
+      <c r="E52" t="s">
         <v>523</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>652</v>
+      </c>
+      <c r="G52" t="s">
+        <v>527</v>
+      </c>
+      <c r="J52" t="s">
         <v>524</v>
       </c>
-      <c r="F52" t="s">
-        <v>653</v>
-      </c>
-      <c r="G52" t="s">
-        <v>528</v>
-      </c>
-      <c r="J52" t="s">
-        <v>525</v>
-      </c>
       <c r="K52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L52" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M52" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C53" t="s">
+        <v>566</v>
+      </c>
+      <c r="D53" t="s">
+        <v>535</v>
+      </c>
+      <c r="E53" t="s">
+        <v>536</v>
+      </c>
+      <c r="J53" t="s">
+        <v>537</v>
+      </c>
+      <c r="K53" t="s">
         <v>567</v>
       </c>
-      <c r="D53" t="s">
-        <v>536</v>
-      </c>
-      <c r="E53" t="s">
-        <v>537</v>
-      </c>
-      <c r="J53" t="s">
-        <v>538</v>
-      </c>
-      <c r="K53" t="s">
-        <v>568</v>
-      </c>
       <c r="L53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D54" t="s">
+        <v>535</v>
+      </c>
+      <c r="E54" t="s">
         <v>536</v>
       </c>
-      <c r="E54" t="s">
+      <c r="J54" t="s">
         <v>537</v>
       </c>
-      <c r="J54" t="s">
-        <v>538</v>
-      </c>
       <c r="K54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D55" t="s">
+        <v>535</v>
+      </c>
+      <c r="E55" t="s">
         <v>536</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>652</v>
+      </c>
+      <c r="G55" t="s">
+        <v>527</v>
+      </c>
+      <c r="J55" t="s">
         <v>537</v>
       </c>
-      <c r="F55" t="s">
-        <v>653</v>
-      </c>
-      <c r="G55" t="s">
-        <v>528</v>
-      </c>
-      <c r="J55" t="s">
-        <v>538</v>
-      </c>
       <c r="K55" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L55" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M55" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>570</v>
+      </c>
+      <c r="C56" t="s">
+        <v>566</v>
+      </c>
+      <c r="D56" t="s">
+        <v>522</v>
+      </c>
+      <c r="E56" t="s">
         <v>571</v>
       </c>
-      <c r="C56" t="s">
-        <v>567</v>
-      </c>
-      <c r="D56" t="s">
-        <v>523</v>
-      </c>
-      <c r="E56" t="s">
-        <v>572</v>
-      </c>
       <c r="G56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>566</v>
+      </c>
+      <c r="D57" t="s">
+        <v>522</v>
+      </c>
+      <c r="E57" t="s">
         <v>571</v>
       </c>
-      <c r="C57" t="s">
-        <v>567</v>
-      </c>
-      <c r="D57" t="s">
-        <v>523</v>
-      </c>
-      <c r="E57" t="s">
-        <v>572</v>
-      </c>
       <c r="G57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>570</v>
+      </c>
+      <c r="C58" t="s">
+        <v>566</v>
+      </c>
+      <c r="D58" t="s">
+        <v>522</v>
+      </c>
+      <c r="E58" t="s">
         <v>571</v>
       </c>
-      <c r="C58" t="s">
-        <v>567</v>
-      </c>
-      <c r="D58" t="s">
-        <v>523</v>
-      </c>
-      <c r="E58" t="s">
-        <v>572</v>
-      </c>
       <c r="G58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>570</v>
+      </c>
+      <c r="C59" t="s">
+        <v>566</v>
+      </c>
+      <c r="D59" t="s">
+        <v>522</v>
+      </c>
+      <c r="E59" t="s">
         <v>571</v>
       </c>
-      <c r="C59" t="s">
-        <v>567</v>
-      </c>
-      <c r="D59" t="s">
-        <v>523</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="J59" t="s">
+        <v>524</v>
+      </c>
+      <c r="K59" t="s">
         <v>572</v>
       </c>
-      <c r="J59" t="s">
-        <v>525</v>
-      </c>
-      <c r="K59" t="s">
-        <v>573</v>
-      </c>
       <c r="L59" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>570</v>
+      </c>
+      <c r="C60" t="s">
+        <v>566</v>
+      </c>
+      <c r="D60" t="s">
+        <v>522</v>
+      </c>
+      <c r="E60" t="s">
         <v>571</v>
       </c>
-      <c r="C60" t="s">
-        <v>567</v>
-      </c>
-      <c r="D60" t="s">
-        <v>523</v>
-      </c>
-      <c r="E60" t="s">
-        <v>572</v>
-      </c>
       <c r="G60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K60" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>570</v>
+      </c>
+      <c r="C61" t="s">
+        <v>566</v>
+      </c>
+      <c r="D61" t="s">
+        <v>522</v>
+      </c>
+      <c r="E61" t="s">
         <v>571</v>
       </c>
-      <c r="C61" t="s">
-        <v>567</v>
-      </c>
-      <c r="D61" t="s">
-        <v>523</v>
-      </c>
-      <c r="E61" t="s">
-        <v>572</v>
-      </c>
       <c r="G61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>573</v>
+      </c>
+      <c r="C62" t="s">
+        <v>566</v>
+      </c>
+      <c r="D62" t="s">
+        <v>522</v>
+      </c>
+      <c r="E62" t="s">
+        <v>571</v>
+      </c>
+      <c r="J62" t="s">
+        <v>524</v>
+      </c>
+      <c r="K62" t="s">
         <v>574</v>
       </c>
-      <c r="C62" t="s">
-        <v>567</v>
-      </c>
-      <c r="D62" t="s">
-        <v>523</v>
-      </c>
-      <c r="E62" t="s">
-        <v>572</v>
-      </c>
-      <c r="J62" t="s">
-        <v>525</v>
-      </c>
-      <c r="K62" t="s">
-        <v>575</v>
-      </c>
       <c r="L62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>575</v>
+      </c>
+      <c r="C63" t="s">
+        <v>566</v>
+      </c>
+      <c r="D63" t="s">
+        <v>522</v>
+      </c>
+      <c r="E63" t="s">
+        <v>571</v>
+      </c>
+      <c r="J63" t="s">
+        <v>524</v>
+      </c>
+      <c r="K63" t="s">
         <v>576</v>
       </c>
-      <c r="C63" t="s">
-        <v>567</v>
-      </c>
-      <c r="D63" t="s">
-        <v>523</v>
-      </c>
-      <c r="E63" t="s">
-        <v>572</v>
-      </c>
-      <c r="J63" t="s">
-        <v>525</v>
-      </c>
-      <c r="K63" t="s">
-        <v>577</v>
-      </c>
       <c r="L63" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C65" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E65" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>579</v>
+      </c>
+      <c r="C66" t="s">
+        <v>566</v>
+      </c>
+      <c r="D66" t="s">
+        <v>522</v>
+      </c>
+      <c r="E66" t="s">
+        <v>571</v>
+      </c>
+      <c r="F66" t="s">
+        <v>652</v>
+      </c>
+      <c r="G66" t="s">
+        <v>527</v>
+      </c>
+      <c r="J66" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" t="s">
         <v>580</v>
       </c>
-      <c r="C66" t="s">
-        <v>567</v>
-      </c>
-      <c r="D66" t="s">
-        <v>523</v>
-      </c>
-      <c r="E66" t="s">
-        <v>572</v>
-      </c>
-      <c r="F66" t="s">
-        <v>653</v>
-      </c>
-      <c r="G66" t="s">
-        <v>528</v>
-      </c>
-      <c r="J66" t="s">
-        <v>525</v>
-      </c>
-      <c r="K66" t="s">
-        <v>581</v>
-      </c>
       <c r="L66" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M66" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C67" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C68" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D68" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G68" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>583</v>
+      </c>
+      <c r="C69" t="s">
+        <v>566</v>
+      </c>
+      <c r="D69" t="s">
+        <v>522</v>
+      </c>
+      <c r="E69" t="s">
+        <v>571</v>
+      </c>
+      <c r="J69" t="s">
+        <v>524</v>
+      </c>
+      <c r="K69" t="s">
         <v>584</v>
       </c>
-      <c r="C69" t="s">
-        <v>567</v>
-      </c>
-      <c r="D69" t="s">
-        <v>523</v>
-      </c>
-      <c r="E69" t="s">
-        <v>572</v>
-      </c>
-      <c r="J69" t="s">
-        <v>525</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>585</v>
       </c>
-      <c r="L69" t="s">
+      <c r="B70" t="s">
+        <v>586</v>
+      </c>
+      <c r="C70" t="s">
+        <v>566</v>
+      </c>
+      <c r="D70" t="s">
+        <v>522</v>
+      </c>
+      <c r="E70" t="s">
+        <v>571</v>
+      </c>
+      <c r="G70" t="s">
         <v>527</v>
       </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>587</v>
+      </c>
+      <c r="L70" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>586</v>
-      </c>
-      <c r="B70" t="s">
-        <v>587</v>
-      </c>
-      <c r="C70" t="s">
-        <v>567</v>
-      </c>
-      <c r="D70" t="s">
-        <v>523</v>
-      </c>
-      <c r="E70" t="s">
-        <v>572</v>
-      </c>
-      <c r="G70" t="s">
-        <v>528</v>
-      </c>
-      <c r="J70" t="s">
-        <v>525</v>
-      </c>
-      <c r="K70" t="s">
-        <v>588</v>
-      </c>
-      <c r="L70" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D71" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J71" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L71" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D72" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F72" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K72" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L72" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M72" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C73" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D73" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K73" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F74" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L74" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M74" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C75" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D75" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E75" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F75" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G75" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K75" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L75" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M75" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D76" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K76" t="s">
+        <v>593</v>
+      </c>
+      <c r="L76" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>594</v>
       </c>
-      <c r="L76" t="s">
+      <c r="B77" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" t="s">
+        <v>522</v>
+      </c>
+      <c r="E77" t="s">
+        <v>571</v>
+      </c>
+      <c r="G77" t="s">
         <v>527</v>
       </c>
+      <c r="J77" t="s">
+        <v>524</v>
+      </c>
+      <c r="K77" t="s">
+        <v>587</v>
+      </c>
+      <c r="L77" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>595</v>
-      </c>
-      <c r="B77" t="s">
-        <v>540</v>
-      </c>
-      <c r="C77" t="s">
-        <v>567</v>
-      </c>
-      <c r="D77" t="s">
-        <v>523</v>
-      </c>
-      <c r="E77" t="s">
-        <v>572</v>
-      </c>
-      <c r="G77" t="s">
-        <v>528</v>
-      </c>
-      <c r="J77" t="s">
-        <v>525</v>
-      </c>
-      <c r="K77" t="s">
-        <v>588</v>
-      </c>
-      <c r="L77" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C78" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G78" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L78" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D79" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K79" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G80" t="s">
+        <v>527</v>
+      </c>
+      <c r="J80" t="s">
+        <v>524</v>
+      </c>
+      <c r="K80" t="s">
         <v>528</v>
       </c>
-      <c r="J80" t="s">
-        <v>525</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>529</v>
       </c>
-      <c r="L80" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>596</v>
+      </c>
+      <c r="C81" t="s">
+        <v>566</v>
+      </c>
+      <c r="D81" t="s">
+        <v>522</v>
+      </c>
+      <c r="E81" t="s">
+        <v>571</v>
+      </c>
+      <c r="F81" t="s">
+        <v>652</v>
+      </c>
+      <c r="J81" t="s">
+        <v>524</v>
+      </c>
+      <c r="K81" t="s">
         <v>597</v>
       </c>
-      <c r="C81" t="s">
-        <v>567</v>
-      </c>
-      <c r="D81" t="s">
-        <v>523</v>
-      </c>
-      <c r="E81" t="s">
-        <v>572</v>
-      </c>
-      <c r="F81" t="s">
-        <v>653</v>
-      </c>
-      <c r="J81" t="s">
-        <v>525</v>
-      </c>
-      <c r="K81" t="s">
-        <v>598</v>
-      </c>
       <c r="L81" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="M81" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D82" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E82" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J82" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K82" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L82" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C83" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D83" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G83" t="s">
+        <v>527</v>
+      </c>
+      <c r="J83" t="s">
+        <v>524</v>
+      </c>
+      <c r="K83" t="s">
         <v>528</v>
       </c>
-      <c r="J83" t="s">
-        <v>525</v>
-      </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>529</v>
       </c>
-      <c r="L83" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C84" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D84" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E84" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K84" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>600</v>
+      </c>
+      <c r="C85" t="s">
+        <v>566</v>
+      </c>
+      <c r="D85" t="s">
+        <v>522</v>
+      </c>
+      <c r="E85" t="s">
+        <v>571</v>
+      </c>
+      <c r="J85" t="s">
+        <v>524</v>
+      </c>
+      <c r="K85" t="s">
         <v>601</v>
       </c>
-      <c r="C85" t="s">
-        <v>567</v>
-      </c>
-      <c r="D85" t="s">
-        <v>523</v>
-      </c>
-      <c r="E85" t="s">
-        <v>572</v>
-      </c>
-      <c r="J85" t="s">
-        <v>525</v>
-      </c>
-      <c r="K85" t="s">
-        <v>602</v>
-      </c>
       <c r="L85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>602</v>
+      </c>
+      <c r="C86" t="s">
+        <v>566</v>
+      </c>
+      <c r="D86" t="s">
+        <v>522</v>
+      </c>
+      <c r="E86" t="s">
+        <v>571</v>
+      </c>
+      <c r="J86" t="s">
+        <v>524</v>
+      </c>
+      <c r="K86" t="s">
         <v>603</v>
       </c>
-      <c r="C86" t="s">
-        <v>567</v>
-      </c>
-      <c r="D86" t="s">
-        <v>523</v>
-      </c>
-      <c r="E86" t="s">
-        <v>572</v>
-      </c>
-      <c r="J86" t="s">
-        <v>525</v>
-      </c>
-      <c r="K86" t="s">
-        <v>604</v>
-      </c>
       <c r="L86" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D87" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E87" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G87" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J87" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K87" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E88" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K88" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C89" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D89" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E89" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D90" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E90" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K90" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C91" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D91" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G91" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L91" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C92" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D92" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E92" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F92" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J92" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K92" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L92" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M92" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D93" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E93" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F93" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G93" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J93" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K93" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L93" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M93" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C94" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D94" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E94" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F94" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G94" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J94" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K94" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L94" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M94" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C95" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D95" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E95" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F95" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G95" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J95" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K95" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L95" t="s">
-        <v>530</v>
+        <v>529</v>
+      </c>
+      <c r="M95" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C96" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G96" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J96" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K96" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C97" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D97" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E97" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C98" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D98" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E98" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G98" t="s">
+        <v>527</v>
+      </c>
+      <c r="J98" t="s">
+        <v>524</v>
+      </c>
+      <c r="K98" t="s">
         <v>528</v>
       </c>
-      <c r="J98" t="s">
-        <v>525</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>529</v>
       </c>
-      <c r="L98" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
+        <v>616</v>
+      </c>
+      <c r="C99" t="s">
+        <v>566</v>
+      </c>
+      <c r="D99" t="s">
+        <v>522</v>
+      </c>
+      <c r="E99" t="s">
+        <v>571</v>
+      </c>
+      <c r="F99" t="s">
+        <v>652</v>
+      </c>
+      <c r="J99" t="s">
+        <v>524</v>
+      </c>
+      <c r="K99" t="s">
         <v>617</v>
       </c>
-      <c r="C99" t="s">
-        <v>567</v>
-      </c>
-      <c r="D99" t="s">
-        <v>523</v>
-      </c>
-      <c r="E99" t="s">
-        <v>572</v>
-      </c>
-      <c r="F99" t="s">
-        <v>653</v>
-      </c>
-      <c r="J99" t="s">
-        <v>525</v>
-      </c>
-      <c r="K99" t="s">
-        <v>618</v>
-      </c>
       <c r="L99" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="M99" t="s">
+        <v>652</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>618</v>
+      </c>
+      <c r="C100" t="s">
+        <v>566</v>
+      </c>
+      <c r="D100" t="s">
+        <v>522</v>
+      </c>
+      <c r="E100" t="s">
+        <v>571</v>
+      </c>
+      <c r="J100" t="s">
+        <v>524</v>
+      </c>
+      <c r="K100" t="s">
         <v>619</v>
       </c>
-      <c r="C100" t="s">
-        <v>567</v>
-      </c>
-      <c r="D100" t="s">
-        <v>523</v>
-      </c>
-      <c r="E100" t="s">
-        <v>572</v>
-      </c>
-      <c r="J100" t="s">
-        <v>525</v>
-      </c>
-      <c r="K100" t="s">
-        <v>620</v>
-      </c>
       <c r="L100" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C101" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D101" t="s">
+        <v>522</v>
+      </c>
+      <c r="E101" t="s">
+        <v>571</v>
+      </c>
+      <c r="G101" t="s">
+        <v>527</v>
+      </c>
+      <c r="J101" t="s">
+        <v>524</v>
+      </c>
+      <c r="K101" t="s">
+        <v>577</v>
+      </c>
+      <c r="L101" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>620</v>
+      </c>
+      <c r="B102" t="s">
+        <v>570</v>
+      </c>
+      <c r="C102" t="s">
+        <v>621</v>
+      </c>
+      <c r="D102" t="s">
+        <v>522</v>
+      </c>
+      <c r="E102" t="s">
         <v>523</v>
       </c>
-      <c r="E101" t="s">
-        <v>572</v>
-      </c>
-      <c r="G101" t="s">
-        <v>528</v>
-      </c>
-      <c r="J101" t="s">
-        <v>525</v>
-      </c>
-      <c r="K101" t="s">
-        <v>578</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="F102" t="s">
+        <v>652</v>
+      </c>
+      <c r="G102" t="s">
+        <v>527</v>
+      </c>
+      <c r="J102" t="s">
+        <v>524</v>
+      </c>
+      <c r="K102" t="s">
+        <v>587</v>
+      </c>
+      <c r="L102" t="s">
+        <v>588</v>
+      </c>
+      <c r="M102" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>622</v>
+      </c>
+      <c r="B103" t="s">
+        <v>570</v>
+      </c>
+      <c r="C103" t="s">
+        <v>621</v>
+      </c>
+      <c r="D103" t="s">
+        <v>522</v>
+      </c>
+      <c r="E103" t="s">
+        <v>523</v>
+      </c>
+      <c r="F103" t="s">
+        <v>652</v>
+      </c>
+      <c r="G103" t="s">
+        <v>527</v>
+      </c>
+      <c r="J103" t="s">
+        <v>524</v>
+      </c>
+      <c r="K103" t="s">
+        <v>587</v>
+      </c>
+      <c r="L103" t="s">
+        <v>588</v>
+      </c>
+      <c r="M103" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>654</v>
+      </c>
+      <c r="B104" t="s">
+        <v>570</v>
+      </c>
+      <c r="C104" t="s">
+        <v>621</v>
+      </c>
+      <c r="D104" t="s">
+        <v>522</v>
+      </c>
+      <c r="E104" t="s">
+        <v>571</v>
+      </c>
+      <c r="I104" t="s">
+        <v>527</v>
+      </c>
+      <c r="J104" t="s">
+        <v>524</v>
+      </c>
+      <c r="K104" t="s">
         <v>530</v>
       </c>
+      <c r="L104" t="s">
+        <v>529</v>
+      </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>621</v>
-      </c>
-      <c r="B102" t="s">
-        <v>571</v>
-      </c>
-      <c r="C102" t="s">
-        <v>622</v>
-      </c>
-      <c r="D102" t="s">
-        <v>523</v>
-      </c>
-      <c r="E102" t="s">
-        <v>524</v>
-      </c>
-      <c r="F102" t="s">
-        <v>653</v>
-      </c>
-      <c r="G102" t="s">
-        <v>528</v>
-      </c>
-      <c r="J102" t="s">
-        <v>525</v>
-      </c>
-      <c r="K102" t="s">
-        <v>588</v>
-      </c>
-      <c r="L102" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>623</v>
-      </c>
-      <c r="B103" t="s">
-        <v>571</v>
-      </c>
-      <c r="C103" t="s">
-        <v>622</v>
-      </c>
-      <c r="D103" t="s">
-        <v>523</v>
-      </c>
-      <c r="E103" t="s">
-        <v>524</v>
-      </c>
-      <c r="F103" t="s">
-        <v>653</v>
-      </c>
-      <c r="G103" t="s">
-        <v>528</v>
-      </c>
-      <c r="J103" t="s">
-        <v>525</v>
-      </c>
-      <c r="K103" t="s">
-        <v>588</v>
-      </c>
-      <c r="L103" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>655</v>
-      </c>
-      <c r="B104" t="s">
-        <v>571</v>
-      </c>
-      <c r="C104" t="s">
-        <v>622</v>
-      </c>
-      <c r="D104" t="s">
-        <v>523</v>
-      </c>
-      <c r="E104" t="s">
-        <v>572</v>
-      </c>
-      <c r="I104" t="s">
-        <v>528</v>
-      </c>
-      <c r="J104" t="s">
-        <v>525</v>
-      </c>
-      <c r="K104" t="s">
-        <v>531</v>
-      </c>
-      <c r="L104" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>102</v>
       </c>
       <c r="B105" t="s">
+        <v>570</v>
+      </c>
+      <c r="C105" t="s">
+        <v>621</v>
+      </c>
+      <c r="D105" t="s">
+        <v>522</v>
+      </c>
+      <c r="E105" t="s">
         <v>571</v>
       </c>
-      <c r="C105" t="s">
-        <v>622</v>
-      </c>
-      <c r="D105" t="s">
-        <v>523</v>
-      </c>
-      <c r="E105" t="s">
-        <v>572</v>
+      <c r="G105" t="s">
+        <v>652</v>
       </c>
       <c r="H105" t="s">
+        <v>527</v>
+      </c>
+      <c r="J105" t="s">
+        <v>524</v>
+      </c>
+      <c r="K105" t="s">
         <v>528</v>
       </c>
-      <c r="J105" t="s">
-        <v>525</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>529</v>
       </c>
-      <c r="L105" t="s">
-        <v>530</v>
-      </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>103</v>
       </c>
       <c r="B106" t="s">
+        <v>570</v>
+      </c>
+      <c r="C106" t="s">
+        <v>621</v>
+      </c>
+      <c r="D106" t="s">
+        <v>522</v>
+      </c>
+      <c r="E106" t="s">
         <v>571</v>
       </c>
-      <c r="C106" t="s">
-        <v>622</v>
-      </c>
-      <c r="D106" t="s">
-        <v>523</v>
-      </c>
-      <c r="E106" t="s">
-        <v>572</v>
-      </c>
       <c r="H106" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J106" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K106" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L106" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>104</v>
       </c>
       <c r="B107" t="s">
+        <v>570</v>
+      </c>
+      <c r="C107" t="s">
+        <v>621</v>
+      </c>
+      <c r="D107" t="s">
+        <v>522</v>
+      </c>
+      <c r="E107" t="s">
         <v>571</v>
       </c>
-      <c r="C107" t="s">
-        <v>622</v>
-      </c>
-      <c r="D107" t="s">
-        <v>523</v>
-      </c>
-      <c r="E107" t="s">
-        <v>572</v>
-      </c>
       <c r="J107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K107" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L107" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D108" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E108" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H108" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K108" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L108" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>106</v>
       </c>
       <c r="B109" t="s">
+        <v>570</v>
+      </c>
+      <c r="C109" t="s">
+        <v>621</v>
+      </c>
+      <c r="D109" t="s">
+        <v>522</v>
+      </c>
+      <c r="E109" t="s">
         <v>571</v>
       </c>
-      <c r="C109" t="s">
-        <v>622</v>
-      </c>
-      <c r="D109" t="s">
-        <v>523</v>
-      </c>
-      <c r="E109" t="s">
-        <v>572</v>
-      </c>
       <c r="J109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K109" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L109" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C110" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D110" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H110" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J110" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K110" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D111" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E111" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J111" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K111" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L111" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C112" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D112" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E112" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J112" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L112" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
@@ -67237,25 +67347,25 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C113" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E113" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J113" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L113" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
@@ -67263,28 +67373,28 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C114" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D114" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E114" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H114" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J114" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K114" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
@@ -67292,25 +67402,25 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C115" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E115" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K115" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
@@ -67318,28 +67428,28 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D116" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E116" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H116" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J116" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K116" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L116" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
@@ -67347,25 +67457,25 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C117" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D117" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J117" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K117" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L117" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
@@ -67373,25 +67483,25 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C118" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E118" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K118" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L118" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
@@ -67399,25 +67509,25 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C119" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D119" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E119" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J119" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K119" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
@@ -67425,28 +67535,28 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C120" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D120" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H120" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J120" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K120" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L120" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
@@ -67454,28 +67564,28 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C121" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D121" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E121" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H121" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J121" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K121" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L121" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
@@ -67483,28 +67593,28 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C122" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D122" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E122" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H122" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J122" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K122" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L122" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
@@ -67512,25 +67622,25 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C123" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D123" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E123" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J123" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K123" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L123" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
@@ -67538,25 +67648,25 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C124" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D124" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E124" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J124" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K124" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L124" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
@@ -67564,28 +67674,28 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C125" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D125" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E125" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H125" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J125" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K125" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L125" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
@@ -67593,25 +67703,25 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C126" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D126" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E126" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J126" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K126" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L126" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
@@ -67619,28 +67729,28 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C127" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D127" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E127" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H127" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J127" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K127" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L127" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
@@ -67648,28 +67758,28 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C128" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D128" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E128" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H128" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J128" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K128" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L128" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
@@ -67677,28 +67787,28 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E129" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J129" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K129" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L129" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
@@ -67706,25 +67816,25 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C130" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D130" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E130" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J130" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K130" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L130" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
@@ -67732,25 +67842,25 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C131" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D131" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E131" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J131" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K131" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L131" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
@@ -67758,25 +67868,25 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C132" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D132" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E132" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J132" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K132" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L132" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
@@ -67784,25 +67894,25 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C133" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D133" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E133" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J133" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K133" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L133" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
@@ -67810,28 +67920,28 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C134" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D134" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E134" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H134" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J134" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K134" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L134" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
@@ -67839,25 +67949,25 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C135" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D135" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E135" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J135" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K135" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L135" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
@@ -67865,25 +67975,25 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C136" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D136" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E136" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J136" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L136" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
@@ -67891,25 +68001,25 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C137" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D137" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E137" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J137" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K137" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L137" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
@@ -67917,25 +68027,25 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C138" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D138" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E138" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K138" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L138" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
@@ -67943,25 +68053,25 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C139" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D139" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E139" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K139" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L139" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -67969,28 +68079,28 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
+        <v>570</v>
+      </c>
+      <c r="C140" t="s">
+        <v>621</v>
+      </c>
+      <c r="D140" t="s">
+        <v>522</v>
+      </c>
+      <c r="E140" t="s">
         <v>571</v>
       </c>
-      <c r="C140" t="s">
-        <v>622</v>
-      </c>
-      <c r="D140" t="s">
-        <v>523</v>
-      </c>
-      <c r="E140" t="s">
-        <v>572</v>
-      </c>
       <c r="H140" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J140" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K140" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L140" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
@@ -67998,25 +68108,25 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C141" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D141" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E141" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J141" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K141" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
@@ -68024,28 +68134,28 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C142" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D142" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E142" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H142" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J142" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K142" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L142" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
@@ -68053,28 +68163,28 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C143" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D143" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E143" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J143" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K143" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L143" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.4">
@@ -68082,25 +68192,25 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C144" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D144" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E144" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J144" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K144" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L144" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.4">
@@ -68108,28 +68218,28 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C145" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D145" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E145" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J145" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L145" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.4">
@@ -68137,28 +68247,28 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C146" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D146" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E146" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H146" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J146" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L146" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.4">
@@ -68166,28 +68276,28 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C147" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D147" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E147" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H147" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J147" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K147" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L147" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -68195,28 +68305,28 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C148" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D148" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E148" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H148" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J148" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K148" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L148" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.4">
@@ -68224,28 +68334,28 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C149" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D149" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E149" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H149" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K149" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L149" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
